--- a/vystupy/tableDescription.xlsx
+++ b/vystupy/tableDescription.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lokalni_data_mimo_OD\K2\vystupy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD3715-6D69-41C5-B9F6-2BC7AB46F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K2_MIGUSER1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="140">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -34,6 +40,21 @@
     <t>TE_PLUGIN</t>
   </si>
   <si>
+    <t>L1_MSA_CP</t>
+  </si>
+  <si>
+    <t>L1_MSA_CUSTOMER</t>
+  </si>
+  <si>
+    <t>L1_MSA_ACCOUNT</t>
+  </si>
+  <si>
+    <t>TE_TREE_SCHEDULE</t>
+  </si>
+  <si>
+    <t>L1_MSA_PRODUCTS</t>
+  </si>
+  <si>
     <t>TE_EDGE</t>
   </si>
   <si>
@@ -67,6 +88,219 @@
     <t>PLUGIN_PLSQL</t>
   </si>
   <si>
+    <t>CPID</t>
+  </si>
+  <si>
+    <t>CPREFNO</t>
+  </si>
+  <si>
+    <t>CUID</t>
+  </si>
+  <si>
+    <t>FIXNI_CISLO</t>
+  </si>
+  <si>
+    <t>JMENO</t>
+  </si>
+  <si>
+    <t>KO_EMAIL</t>
+  </si>
+  <si>
+    <t>MERGED_KEYS</t>
+  </si>
+  <si>
+    <t>MSAERR</t>
+  </si>
+  <si>
+    <t>MSAETLNAME</t>
+  </si>
+  <si>
+    <t>MSAINFO</t>
+  </si>
+  <si>
+    <t>MSAWARN</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>PRIJMENI</t>
+  </si>
+  <si>
+    <t>TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>CISLO_DOKLADU</t>
+  </si>
+  <si>
+    <t>CROSSID</t>
+  </si>
+  <si>
+    <t>CU_REF_NO</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>DATUM_NAROZENI</t>
+  </si>
+  <si>
+    <t>DIC</t>
+  </si>
+  <si>
+    <t>ICO</t>
+  </si>
+  <si>
+    <t>NAZEV_FO_PODNIKAJICI</t>
+  </si>
+  <si>
+    <t>NAZEV_PRAVNICKA_OSOBA</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>ROZSIRENY_TYP_ZAKAZNIKA</t>
+  </si>
+  <si>
+    <t>STAT_VYDANI</t>
+  </si>
+  <si>
+    <t>TITUL_PRED_JMENEM</t>
+  </si>
+  <si>
+    <t>TITUL_ZA_JMENEM</t>
+  </si>
+  <si>
+    <t>TTS_ID</t>
+  </si>
+  <si>
+    <t>TYP_DOKLADU</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ID</t>
+  </si>
+  <si>
+    <t>BANKOVNI_SPOJENI</t>
+  </si>
+  <si>
+    <t>CA_CUSTOM_NAME</t>
+  </si>
+  <si>
+    <t>CAID</t>
+  </si>
+  <si>
+    <t>CA_REF_NO</t>
+  </si>
+  <si>
+    <t>FAKTURACNI_ADRESA</t>
+  </si>
+  <si>
+    <t>INKASNI_LIMIT</t>
+  </si>
+  <si>
+    <t>INVOICE_1ST_PAGE_ONLY</t>
+  </si>
+  <si>
+    <t>JMENO_A_PRIJMENI</t>
+  </si>
+  <si>
+    <t>MERGED</t>
+  </si>
+  <si>
+    <t>NAZEV_DO_FA_ADRESY</t>
+  </si>
+  <si>
+    <t>NOTIFIKACE_EMAIL</t>
+  </si>
+  <si>
+    <t>NOTIFIKACE_SMS</t>
+  </si>
+  <si>
+    <t>POZNAMKA</t>
+  </si>
+  <si>
+    <t>SPOJOVACI_CISLO_SIPO</t>
+  </si>
+  <si>
+    <t>TISTENE_VYUCTOVANI</t>
+  </si>
+  <si>
+    <t>ZPUSOB_PLATBY</t>
+  </si>
+  <si>
+    <t>ZUCTOVACI_OBDOBI</t>
+  </si>
+  <si>
+    <t>TTS_ENTITY_ID</t>
+  </si>
+  <si>
+    <t>TTS_ENTITY_TYPE</t>
+  </si>
+  <si>
+    <t>TTS_INIT_VALUE</t>
+  </si>
+  <si>
+    <t>TTS_INSERT_DATE</t>
+  </si>
+  <si>
+    <t>TTS_LAST_NODE</t>
+  </si>
+  <si>
+    <t>TTS_LAST_VALUE</t>
+  </si>
+  <si>
+    <t>TTS_MODIFIED_DATE</t>
+  </si>
+  <si>
+    <t>TTS_PARENT_ID</t>
+  </si>
+  <si>
+    <t>TTS_ROOT_ID</t>
+  </si>
+  <si>
+    <t>TTS_STATUS</t>
+  </si>
+  <si>
+    <t>TTS_STATUS_REASON</t>
+  </si>
+  <si>
+    <t>TTS_TIMESTAMP_TO_DO</t>
+  </si>
+  <si>
+    <t>TTS_TREE_ID</t>
+  </si>
+  <si>
+    <t>TTS_TREE_PATH</t>
+  </si>
+  <si>
+    <t>TTS_TREE_VALUES</t>
+  </si>
+  <si>
+    <t>TTS_USER</t>
+  </si>
+  <si>
+    <t>TTS_WAVE_ID</t>
+  </si>
+  <si>
+    <t>EPLATCE_ID</t>
+  </si>
+  <si>
+    <t>LINE_ORIGIN_ID</t>
+  </si>
+  <si>
+    <t>OKU_INTERNET</t>
+  </si>
+  <si>
+    <t>OKU_VOIP</t>
+  </si>
+  <si>
+    <t>PRODID</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
     <t>CONDITION</t>
   </si>
   <si>
@@ -125,6 +359,63 @@
   </si>
   <si>
     <t>plugin plsql - function, package function with standard interface, dynamicaly executed by engine</t>
+  </si>
+  <si>
+    <t>Stage internal unique generated key</t>
+  </si>
+  <si>
+    <t>Identifikator entity</t>
+  </si>
+  <si>
+    <t>Typ entity</t>
+  </si>
+  <si>
+    <t>Identifikator (sekvence)</t>
+  </si>
+  <si>
+    <t>Pocatecni hodnota 1. pluginu</t>
+  </si>
+  <si>
+    <t>Datum vlozeni konkretniho zaznamu</t>
+  </si>
+  <si>
+    <t>Posledni zpracovany uzel (na zacatku je vzdy 0)</t>
+  </si>
+  <si>
+    <t>Vysledek posledniho zpracovaneho pluginu (uzlu)</t>
+  </si>
+  <si>
+    <t>Datum posledni modifikace radku</t>
+  </si>
+  <si>
+    <t>0..novy zaznam, -1..behem zpracovani se vyskytla vyjimka, 1..zaznam uspesne zpracovan, 2..zaznam se zpracovava, 3..wait, 4..stop</t>
+  </si>
+  <si>
+    <t>Pripadny duvod chyby</t>
+  </si>
+  <si>
+    <t>Datum a cas spusteni stromu</t>
+  </si>
+  <si>
+    <t>Cislo prirazeneho stromu</t>
+  </si>
+  <si>
+    <t>Zaznamy o pruchodu stromem</t>
+  </si>
+  <si>
+    <t>Zaznamy o vracenych hodnotach</t>
+  </si>
+  <si>
+    <t>Kdo vlozil zaznam</t>
+  </si>
+  <si>
+    <t>ID migrační vlny</t>
+  </si>
+  <si>
+    <t>Identifikator platce</t>
+  </si>
+  <si>
+    <t>Identifikator pripojky</t>
   </si>
   <si>
     <t>condition - checked by TE_edge_condition_check constriant (=,&gt;,&gt;=,&lt;,&lt;=,&lt;&gt;,!=,IN,BETWEEN,&lt;condition_plugin&gt;)</t>
@@ -154,8 +445,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,17 +505,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +561,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -296,6 +595,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,9 +630,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,14 +806,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,238 +831,1043 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>9</v>
       </c>
-      <c r="C22" t="s">
-        <v>44</v>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6f8a142f-f8e1-47f5-bdab-718b4b85da93}" enabled="1" method="Standard" siteId="{b287c0b1-6968-4dc8-9732-8d00f2760e89}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>